--- a/biology/Médecine/Chambre_de_nébulisation/Chambre_de_nébulisation.xlsx
+++ b/biology/Médecine/Chambre_de_nébulisation/Chambre_de_nébulisation.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Chambre_de_n%C3%A9bulisation</t>
+          <t>Chambre_de_nébulisation</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Une chambre de nébulisation permet de sélectionner les gouttelettes d'un aérosol selon leur taille (ou leur masse cela revient au même généralement). En effet, un nébuliseur produit des gouttelettes très fines mais de tailles disparates et hétérogènes, ce qui gêne les utilisateurs.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Chambre_de_n%C3%A9bulisation</t>
+          <t>Chambre_de_nébulisation</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Types de chambres</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Plusieurs types de chambres de nébulisation existent :
 les chambres à impact
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Chambre_de_n%C3%A9bulisation</t>
+          <t>Chambre_de_nébulisation</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les chambres de nébulisations sont conçues selon leurs utilisations. L'aérosol généré par minéralisation par voie humide (attaque acide) peut contenir un acide incompatible avec le nébuliseur et la chambre de nébulisation (comme un nébuliseur et une chambre en quartz ou en verre et une attaque acide sous acide fluorhydrique). Dans ce cas, la chambre de nébulisation (et le nébuliseur) peuvent être :
 En verre, quartz : pour une utilisation pour tous types d'acides hors HF (acide fluorhydrique)
